--- a/Assignment3/Timeframe.xlsx
+++ b/Assignment3/Timeframe.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timpr\GitHub\RMIT StockIT\RMIT stockIT\Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67B732F-2002-40A2-A226-59CFB1FF45A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD457C4-A7F1-42F8-87A5-2DC5016D1ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8790" yWindow="2250" windowWidth="28800" windowHeight="15435" xr2:uid="{76DE9C9C-A5DD-4D1A-9F33-211490BC57DE}"/>
+    <workbookView xWindow="-38520" yWindow="8835" windowWidth="38640" windowHeight="21240" xr2:uid="{76DE9C9C-A5DD-4D1A-9F33-211490BC57DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>Week 7</t>
   </si>
@@ -245,6 +246,12 @@
   <si>
     <t>Assigned Hrs</t>
   </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +300,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,8 +341,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -420,68 +433,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,9 +524,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,31 +1437,6 @@
     <dgm:pt modelId="{92230725-2E9F-4D3E-8462-52D4B60DC07D}" type="doc">
       <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess11" loCatId="process" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
       <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{6EE137B8-20D1-417A-A106-2E5FF7EEFDD7}">
-      <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU"/>
-            <a:t>Task assignment for Group Members. Revise Assignment 2.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-AU"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-AU"/>
-            <a:t>GitHub repositories created, new teams channels created. </a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{55A1509B-01D8-4339-A589-4CE472936AEC}" type="parTrans" cxnId="{952D9954-C95B-417C-BDF4-354DBD34CF51}">
-      <dgm:prSet/>
-      <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1308,7 +1445,21 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{995E4C33-10A3-4F2D-A9F8-815F5805EB2C}" type="sibTrans" cxnId="{952D9954-C95B-417C-BDF4-354DBD34CF51}">
+    <dgm:pt modelId="{84109EFA-E419-4126-B961-1AE2FB666DF4}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Discuss ideas surrounding Asgn 5 presentation requirements. Allocate team leaders for Asgn 5. Tasks fully allocated for Asgn 3. </a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AD5284F8-E98A-4FF5-B174-40280499A504}" type="parTrans" cxnId="{53220A46-D45D-47C4-91F1-FDB91391D9A3}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1319,21 +1470,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{84109EFA-E419-4126-B961-1AE2FB666DF4}">
-      <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU"/>
-            <a:t>Research Ideas on development and implementation of stockIT functionalities. Begin work on Assignment 5 - Scripting and Storyboarding.</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{AD5284F8-E98A-4FF5-B174-40280499A504}" type="parTrans" cxnId="{53220A46-D45D-47C4-91F1-FDB91391D9A3}">
+    <dgm:pt modelId="{F6B98105-37FB-4102-9F5A-D32DEEB763E2}" type="sibTrans" cxnId="{53220A46-D45D-47C4-91F1-FDB91391D9A3}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1344,27 +1481,16 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{F6B98105-37FB-4102-9F5A-D32DEEB763E2}" type="sibTrans" cxnId="{53220A46-D45D-47C4-91F1-FDB91391D9A3}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-AU"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{A2680631-8645-4253-BF3B-17858CC2FAF8}">
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr/>
       <dgm:t>
-        <a:bodyPr/>
+        <a:bodyPr anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr lang="en-AU"/>
-            <a:t>Begin UI development using Figma. Research into Job Advertisements. </a:t>
+            <a:t>Define deliverable(s) for stockIT project. Transition to Figma for wireframing and prototyping. Figma mobile app and web browser application wireframing begins.</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1428,15 +1554,21 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C72EAAFC-052E-470A-8950-01DA75CF3868}">
-      <dgm:prSet phldrT="[Text]"/>
+      <dgm:prSet phldrT="[Text]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-AU"/>
-            <a:t>Assignment 5 Storyboarding and Scripting due. </a:t>
+            <a:rPr lang="en-AU" sz="1000"/>
+            <a:t>Assignment 5 Storyboarding and Scripting due. Draft video and script presented to group members by Asgn 5 project leaders.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000"/>
+            <a:t>Discuss Feedback from asgn2 and incorporate into asgn3</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1859,6 +1991,39 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{6EE137B8-20D1-417A-A106-2E5FF7EEFDD7}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{995E4C33-10A3-4F2D-A9F8-815F5805EB2C}" type="sibTrans" cxnId="{952D9954-C95B-417C-BDF4-354DBD34CF51}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{55A1509B-01D8-4339-A589-4CE472936AEC}" type="parTrans" cxnId="{952D9954-C95B-417C-BDF4-354DBD34CF51}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{41A358B5-2F56-4AA4-B94C-8CB9A2AE1734}" type="pres">
       <dgm:prSet presAssocID="{92230725-2E9F-4D3E-8462-52D4B60DC07D}" presName="Name0" presStyleCnt="0">
         <dgm:presLayoutVars>
@@ -1881,7 +2046,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C7DA4288-C361-489C-85FD-5AA5F158A639}" type="pres">
-      <dgm:prSet presAssocID="{6EE137B8-20D1-417A-A106-2E5FF7EEFDD7}" presName="textA" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="16" custLinFactNeighborX="8313" custLinFactNeighborY="-861">
+      <dgm:prSet presAssocID="{6EE137B8-20D1-417A-A106-2E5FF7EEFDD7}" presName="textA" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="16" custScaleX="119634" custScaleY="121614" custLinFactY="31867" custLinFactNeighborX="8313" custLinFactNeighborY="100000">
         <dgm:presLayoutVars>
           <dgm:bulletEnabled val="1"/>
         </dgm:presLayoutVars>
@@ -1889,7 +2054,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{335C5348-FD61-4827-9E99-24C17274E716}" type="pres">
-      <dgm:prSet presAssocID="{6EE137B8-20D1-417A-A106-2E5FF7EEFDD7}" presName="circleA" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="16" custLinFactNeighborX="30979" custLinFactNeighborY="-10325"/>
+      <dgm:prSet presAssocID="{6EE137B8-20D1-417A-A106-2E5FF7EEFDD7}" presName="circleA" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="16" custLinFactNeighborX="30979" custLinFactNeighborY="-16969"/>
       <dgm:spPr>
         <a:solidFill>
           <a:schemeClr val="accent2"/>
@@ -2281,7 +2446,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{86B22118-6303-46EC-905D-E8D25569297D}" type="pres">
-      <dgm:prSet presAssocID="{1D3D722D-6562-420F-A5F2-9137B93B8163}" presName="circleA" presStyleLbl="node1" presStyleIdx="14" presStyleCnt="16" custLinFactX="300000" custLinFactNeighborX="333390" custLinFactNeighborY="-10328"/>
+      <dgm:prSet presAssocID="{1D3D722D-6562-420F-A5F2-9137B93B8163}" presName="circleA" presStyleLbl="node1" presStyleIdx="14" presStyleCnt="16" custLinFactX="334575" custLinFactNeighborX="400000" custLinFactNeighborY="-15311"/>
       <dgm:spPr>
         <a:solidFill>
           <a:schemeClr val="accent2"/>
@@ -2309,7 +2474,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EAE868ED-C61E-4A85-A940-B5C6156CB8BC}" type="pres">
-      <dgm:prSet presAssocID="{D735B9A2-C85B-424F-A799-4F5480E528FD}" presName="circleB" presStyleLbl="node1" presStyleIdx="15" presStyleCnt="16" custLinFactX="300000" custLinFactNeighborX="364371" custLinFactNeighborY="-10326"/>
+      <dgm:prSet presAssocID="{D735B9A2-C85B-424F-A799-4F5480E528FD}" presName="circleB" presStyleLbl="node1" presStyleIdx="15" presStyleCnt="16" custLinFactX="200000" custLinFactNeighborX="209792" custLinFactNeighborY="-10326"/>
       <dgm:spPr>
         <a:solidFill>
           <a:schemeClr val="accent2"/>
@@ -2462,8 +2627,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="789125"/>
-          <a:ext cx="19611974" cy="1040130"/>
+          <a:off x="0" y="875842"/>
+          <a:ext cx="19069050" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="notchedRightArrow">
           <a:avLst/>
@@ -2502,8 +2667,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="88933" y="0"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="99654" y="1459932"/>
+          <a:ext cx="1209369" cy="1403948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2544,22 +2709,12 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-AU" sz="800" kern="1200"/>
-            <a:t>Task assignment for Group Members. Revise Assignment 2.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-AU" sz="800" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-AU" sz="800" kern="1200"/>
-            <a:t>GitHub repositories created, new teams channels created. </a:t>
-          </a:r>
+          <a:endParaRPr lang="en-AU" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="88933" y="0"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="99654" y="1459932"/>
+        <a:ext cx="1209369" cy="1403948"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{335C5348-FD61-4827-9E99-24C17274E716}">
@@ -2569,8 +2724,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="478694" y="1143297"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="565407" y="1312139"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2614,8 +2769,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1301257" y="1560195"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="1461294" y="1731645"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2658,13 +2813,13 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="800" kern="1200"/>
-            <a:t>Research Ideas on development and implementation of stockIT functionalities. Begin work on Assignment 5 - Scripting and Storyboarding.</a:t>
+            <a:t>Discuss ideas surrounding Asgn 5 presentation requirements. Allocate team leaders for Asgn 5. Tasks fully allocated for Asgn 3. </a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1301257" y="1560195"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="1461294" y="1731645"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6F0C3EEA-A44D-4CA0-AD8B-E0A44DA6EE5A}">
@@ -2674,8 +2829,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1701361" y="1134342"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="1855240" y="1258995"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2719,8 +2874,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2513907" y="26856"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="2624769" y="29807"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2744,7 +2899,7 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="56896" tIns="56896" rIns="56896" bIns="56896" numCol="1" spcCol="1270" anchor="b" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="56896" tIns="56896" rIns="56896" bIns="56896" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -2763,13 +2918,13 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="800" kern="1200"/>
-            <a:t>Begin UI development using Figma. Research into Job Advertisements. </a:t>
+            <a:t>Define deliverable(s) for stockIT project. Transition to Figma for wireframing and prototyping. Figma mobile app and web browser application wireframing begins.</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2513907" y="26856"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="2624769" y="29807"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C79B41D3-DB5F-41E4-B6DC-222D7F6D3329}">
@@ -2779,8 +2934,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2906045" y="1152245"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="3025873" y="1278866"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2824,8 +2979,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3748862" y="1560195"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="3809645" y="1731645"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2849,12 +3004,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="56896" tIns="56896" rIns="56896" bIns="56896" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="71120" tIns="71120" rIns="71120" bIns="71120" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2867,14 +3022,32 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AU" sz="800" kern="1200"/>
-            <a:t>Assignment 5 Storyboarding and Scripting due. </a:t>
+            <a:rPr lang="en-AU" sz="1000" kern="1200"/>
+            <a:t>Assignment 5 Storyboarding and Scripting due. Draft video and script presented to group members by Asgn 5 project leaders.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" kern="1200"/>
+            <a:t>Discuss Feedback from asgn2 and incorporate into asgn3</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3748862" y="1560195"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="3809645" y="1731645"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{18F3CBCA-B921-4F2C-BE47-4E628E312092}">
@@ -2884,8 +3057,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4128793" y="1143292"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="4216556" y="1268929"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2929,8 +3102,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4950417" y="35801"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="4962476" y="39735"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2978,8 +3151,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4950417" y="35801"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="4962476" y="39735"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BC7F8E92-3FA9-4666-833A-0397002FC5AB}">
@@ -2989,8 +3162,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5324828" y="1134579"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="5377591" y="1259258"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3034,8 +3207,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6199585" y="1560195"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="6160988" y="1731645"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3083,8 +3256,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6199585" y="1560195"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="6160988" y="1731645"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D0CAA3AC-33F0-4784-AEA4-73B9D56CB7EF}">
@@ -3094,8 +3267,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6565399" y="1134579"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="6588055" y="1259258"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3139,8 +3312,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7429704" y="8955"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="7341224" y="9939"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3188,8 +3361,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7429704" y="8955"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="7341224" y="9939"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0A11EC4D-CD40-4539-92D0-F8ECC50F75C2}">
@@ -3199,8 +3372,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7788059" y="1134579"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="7778639" y="1259258"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3244,8 +3417,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8697932" y="1560195"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="8558024" y="1731645"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3293,8 +3466,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8697932" y="1560195"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="8558024" y="1731645"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{85249A73-5439-4637-8E67-A4E9AEF3F049}">
@@ -3304,8 +3477,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9037343" y="1125394"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="8998775" y="1249064"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3349,8 +3522,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9880428" y="8955"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="9692567" y="9939"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3398,8 +3571,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9880428" y="8955"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="9692567" y="9939"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A9A101E8-FFF9-409A-83DA-99541C90E382}">
@@ -3409,8 +3582,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10215254" y="1143295"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="10139693" y="1268932"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3454,8 +3627,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11062923" y="1560195"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="10827111" y="1731645"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3503,8 +3676,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11062923" y="1560195"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="10827111" y="1731645"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2F7A8939-7C1F-4933-AB29-6D97D3943A79}">
@@ -3514,8 +3687,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11402113" y="1143295"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="11290542" y="1268932"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3559,8 +3732,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12350201" y="17900"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="12062187" y="19867"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3608,8 +3781,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12350201" y="17900"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="12062187" y="19867"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{74815B01-322B-4A8B-82B0-3CAEDD091C27}">
@@ -3619,8 +3792,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12669532" y="1143295"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="12530805" y="1268932"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3664,8 +3837,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13551745" y="1560195"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="13215008" y="1731645"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3713,8 +3886,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13551745" y="1560195"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="13215008" y="1731645"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2BC97695-001C-476C-A177-48002F3F982F}">
@@ -3724,8 +3897,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13865338" y="1116439"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="13691585" y="1239124"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3769,8 +3942,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14753290" y="0"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="14367828" y="0"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3818,8 +3991,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14753290" y="0"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="14367828" y="0"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{59D70B84-8CA2-4FB6-9237-E85C7578361F}">
@@ -3829,8 +4002,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="15105906" y="1134339"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="14902046" y="1258992"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3874,8 +4047,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="16002469" y="1560195"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="15566351" y="1731645"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3923,8 +4096,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="16002469" y="1560195"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="15566351" y="1731645"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{95185B1C-CC1B-4264-90F5-835A2E3D0175}">
@@ -3934,8 +4107,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="16301715" y="1143295"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="16062830" y="1268932"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3979,8 +4152,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="17242113" y="17900"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="16755725" y="19867"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4028,8 +4201,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="17242113" y="17900"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="16755725" y="19867"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{86B22118-6303-46EC-905D-E8D25569297D}">
@@ -4039,8 +4212,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="17533328" y="1143290"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="17555379" y="1254545"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4084,8 +4257,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="18424608" y="1542294"/>
-          <a:ext cx="1053616" cy="1040130"/>
+          <a:off x="17890268" y="1711777"/>
+          <a:ext cx="1010891" cy="1154430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4133,8 +4306,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="18424608" y="1542294"/>
-        <a:ext cx="1053616" cy="1040130"/>
+        <a:off x="17890268" y="1711777"/>
+        <a:ext cx="1010891" cy="1154430"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EAE868ED-C61E-4A85-A940-B5C6156CB8BC}">
@@ -4144,8 +4317,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="18720186" y="1143295"/>
-          <a:ext cx="260032" cy="260032"/>
+          <a:off x="17679466" y="1268932"/>
+          <a:ext cx="288607" cy="288607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5496,16 +5669,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5528,6 +5701,807 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91591</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11B8D9F-EFC0-4696-AF97-CC8877EA3BB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1905000" y="1381125"/>
+          <a:ext cx="1234591" cy="1059180"/>
+          <a:chOff x="2513907" y="26856"/>
+          <a:chExt cx="1234591" cy="1059180"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FD16F0-834D-40B3-9BBC-B224DC41607C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2513907" y="26856"/>
+            <a:ext cx="1053616" cy="1040130"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1">
+              <a:alpha val="0"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9707C88-43FE-4CA1-A362-A4668C5FFFE5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2694882" y="45906"/>
+            <a:ext cx="1053616" cy="1040130"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="56896" tIns="56896" rIns="56896" bIns="56896" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="800" kern="1200"/>
+              <a:t>Brainstorm coding</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="800" kern="1200" baseline="0"/>
+              <a:t> languages to be used. Discuss and practice with MIT App creator. Discuss feedback from our experiences with both.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="800" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>605941</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082D3033-12A9-479C-B4F5-1156D09747FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="695325" y="1333500"/>
+          <a:ext cx="1129816" cy="1106805"/>
+          <a:chOff x="2456757" y="26856"/>
+          <a:chExt cx="1129816" cy="1106805"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E136970C-BC52-421E-8DF3-F0CEE07EF54F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2513907" y="26856"/>
+            <a:ext cx="1053616" cy="1040130"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1">
+              <a:alpha val="0"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA13A3D-48ED-488E-A1FE-6B0BB24E26E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2456757" y="93531"/>
+            <a:ext cx="1129816" cy="1040130"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="56896" tIns="56896" rIns="56896" bIns="56896" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="800" kern="1200"/>
+              <a:t>List</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="800" kern="1200" baseline="0"/>
+              <a:t> out functionalities of stockIT for development. Research and brainstorm tools/tech/skills required for development</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="800" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>86420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE25CA9-BF8E-433B-97FE-1CB454EF612F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="876299" y="4734620"/>
+          <a:ext cx="3800476" cy="1342329"/>
+          <a:chOff x="-1285670" y="1560195"/>
+          <a:chExt cx="3822101" cy="1275439"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DA8C22-BAEA-43B7-9201-DB1CAE88AF92}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1495742" y="1560195"/>
+            <a:ext cx="1040689" cy="1040130"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1">
+              <a:alpha val="0"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="TextBox 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D3CC4E-50D3-4392-A97D-F155EF37F937}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-1285670" y="1668138"/>
+            <a:ext cx="1178241" cy="1167496"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="56896" tIns="56896" rIns="56896" bIns="56896" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="800">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Break down assignment segments. Assign tasks to Group Members. New GitHub repo, teams channel and groups. Organise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="800" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> meeting schedules.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="800">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Assignment 2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="800" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> - what our thoughts are.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50089</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Group 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29556734-A7E0-42E6-99C6-4CEDAA1C31A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3228975" y="3143250"/>
+          <a:ext cx="1088314" cy="2811780"/>
+          <a:chOff x="2645887" y="26856"/>
+          <a:chExt cx="1088314" cy="2811780"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Rectangle 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A557690C-777D-4F53-B1EE-1811773A239C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2693512" y="26856"/>
+            <a:ext cx="1040689" cy="1040130"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1">
+              <a:alpha val="0"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="TextBox 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540C2E48-857F-48C2-A9ED-8345BC28D248}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2645887" y="1798506"/>
+            <a:ext cx="1040689" cy="1040130"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="56896" tIns="56896" rIns="56896" bIns="56896" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="800" kern="1200"/>
+              <a:t>Tools&amp;Tech reporting</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="800" kern="1200" baseline="0"/>
+              <a:t> research begins. Plans&amp;Progress reporting begins. Jobs,Roles reporting begins.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="800" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149F5826-95D7-4618-A6E9-664434EA4DC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="1476375"/>
+          <a:ext cx="762000" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Work continues</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> on Figma wireframing. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520216</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59398</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B63C68-C1A4-4BCF-9477-AAE4F8018F2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="4257675"/>
+          <a:ext cx="1053616" cy="1021423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="dk1">
+            <a:alpha val="0"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5830,10 +6804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB3D085-00DE-46B7-9790-23917E8A632D}">
-  <dimension ref="A3:AG73"/>
+  <dimension ref="A3:AI93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:Q63"/>
+      <selection activeCell="B23" sqref="B23:AG37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5841,1718 +6815,2587 @@
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
     </row>
-    <row r="5" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:35" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="8" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="18"/>
+      <c r="N5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
     </row>
-    <row r="6" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
+    <row r="6" spans="1:35" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="17">
         <v>44486</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17">
         <v>44493</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17">
         <v>44500</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17">
         <v>44507</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17">
         <v>44514</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17">
         <v>44521</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10">
+      <c r="M6" s="17"/>
+      <c r="N6" s="16">
         <v>44528</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10">
+      <c r="O6" s="16"/>
+      <c r="P6" s="16">
         <v>44535</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16">
         <v>44542</v>
       </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10">
+      <c r="S6" s="16"/>
+      <c r="T6" s="16">
         <v>44549</v>
       </c>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10">
+      <c r="U6" s="16"/>
+      <c r="V6" s="16">
         <v>44556</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10">
+      <c r="W6" s="16"/>
+      <c r="X6" s="16">
         <v>44198</v>
       </c>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10">
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16">
         <v>44205</v>
       </c>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10">
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16">
         <v>44212</v>
       </c>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10">
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16">
         <v>44219</v>
       </c>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10">
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16">
         <v>44226</v>
       </c>
-      <c r="AG6" s="10"/>
+      <c r="AG6" s="16"/>
     </row>
-    <row r="7" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:35" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6" t="s">
+      <c r="M7" s="20"/>
+      <c r="N7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6" t="s">
+      <c r="U7" s="19"/>
+      <c r="V7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6" t="s">
+      <c r="W7" s="19"/>
+      <c r="X7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6" t="s">
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6" t="s">
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6" t="s">
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6" t="s">
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AG7" s="6"/>
+      <c r="AG7" s="19"/>
     </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AI10" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
     </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
     </row>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
     </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
     </row>
-    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
     </row>
-    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AI19" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
     </row>
-    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="58"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="3"/>
-      <c r="AC33" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG33" s="27"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20">
-        <v>3.6</v>
-      </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="AC34" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20">
-        <f>SUM(J34,J35,J36,J37,J38,J56,J57)</f>
-        <v>28.85</v>
-      </c>
-      <c r="AG34" s="20"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20">
-        <v>3.6</v>
-      </c>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="AC35" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15">
-        <f>SUM(J40/9)</f>
-        <v>7.5555555555555554</v>
-      </c>
-      <c r="AG35" s="15"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
     </row>
     <row r="36" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="AC36" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20">
-        <f>SUM(J58,J59,J60)/2</f>
-        <v>36</v>
-      </c>
-      <c r="AG36" s="20"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="AC37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15">
-        <f>SUM(J50,J51,J52,J49,J53+7.5)</f>
-        <v>29.1</v>
-      </c>
-      <c r="AG37" s="15"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="15">
-        <v>3.6</v>
-      </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="AC38" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20">
-        <f>SUM(7.5*6)</f>
-        <v>45</v>
-      </c>
-      <c r="AG38" s="20"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20">
-        <v>4</v>
-      </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="AC39" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15">
-        <f>SUM(J58,J59,J60)/2</f>
-        <v>36</v>
-      </c>
-      <c r="AG39" s="15"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17">
-        <v>68</v>
-      </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="58"/>
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20">
-        <v>2</v>
-      </c>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="58"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20">
-        <v>1.8</v>
-      </c>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20">
-        <v>1.8</v>
-      </c>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="58"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="15">
-        <v>7.2</v>
-      </c>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="58"/>
+      <c r="O56" s="58"/>
+      <c r="P56" s="58"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="15">
-        <v>7.25</v>
-      </c>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="58"/>
+      <c r="P57" s="58"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20">
-        <v>14.4</v>
-      </c>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="58"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20">
-        <v>28.8</v>
-      </c>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20">
-        <v>28.8</v>
-      </c>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
+      <c r="P60" s="58"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15">
-        <f>SUM(J34:K60)</f>
-        <v>198.05000000000004</v>
-      </c>
-      <c r="K61" s="15"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="23"/>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="58"/>
+      <c r="P61" s="58"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B62" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
-      <c r="J62" s="15">
-        <f>SUM(J61/6)</f>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="15"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="15"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="15"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B64" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" s="30"/>
+      <c r="L64" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="30"/>
+      <c r="AB64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF64" s="1"/>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B65" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="22">
+        <v>3.6</v>
+      </c>
+      <c r="K65" s="24"/>
+      <c r="L65" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="24"/>
+      <c r="AB65" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3">
+        <f>SUM(I65,I66,I67,I68,I69,I87,I88)</f>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3"/>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B66" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="22">
+        <v>3.6</v>
+      </c>
+      <c r="K66" s="24"/>
+      <c r="L66" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="24"/>
+      <c r="AB66" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4">
+        <f>SUM(I71/9)</f>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="4"/>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B67" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="K67" s="27"/>
+      <c r="L67" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="27"/>
+      <c r="AB67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3">
+        <f>SUM(I89,I90,I91)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B68" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="K68" s="27"/>
+      <c r="L68" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="27"/>
+      <c r="AB68" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4">
+        <f>SUM(I81,I82,I83,I80,I84+7.5)</f>
+        <v>7.5</v>
+      </c>
+      <c r="AF68" s="4"/>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B69" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="25">
+        <v>3.6</v>
+      </c>
+      <c r="K69" s="27"/>
+      <c r="L69" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="27"/>
+      <c r="AB69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3">
+        <f>SUM(7.5*6)</f>
+        <v>45</v>
+      </c>
+      <c r="AF69" s="3"/>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B70" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="22">
+        <v>4</v>
+      </c>
+      <c r="K70" s="24"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="24"/>
+      <c r="AB70" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4">
+        <f>SUM(I89,I90,I91)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="4"/>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B71" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="37">
+        <v>68</v>
+      </c>
+      <c r="K71" s="39"/>
+      <c r="L71" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="27"/>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B72" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="27"/>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B73" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="27"/>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B74" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="27"/>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B75" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="27"/>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="27"/>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B77" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="27"/>
+    </row>
+    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B78" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="27"/>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B79" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="27"/>
+    </row>
+    <row r="80" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B80" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="22">
+        <v>2</v>
+      </c>
+      <c r="K80" s="24"/>
+      <c r="L80" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="24"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K81" s="27"/>
+      <c r="L81" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="27"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K82" s="27"/>
+      <c r="L82" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="27"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K83" s="27"/>
+      <c r="L83" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="27"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K84" s="27"/>
+      <c r="L84" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="27"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="K85" s="24"/>
+      <c r="L85" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="24"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="K86" s="24"/>
+      <c r="L86" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="24"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="25">
+        <v>7.2</v>
+      </c>
+      <c r="K87" s="27"/>
+      <c r="L87" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="27"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="25">
+        <v>7.25</v>
+      </c>
+      <c r="K88" s="27"/>
+      <c r="L88" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="27"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="22">
+        <v>14.4</v>
+      </c>
+      <c r="K89" s="24"/>
+      <c r="L89" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="24"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="22">
+        <v>28.8</v>
+      </c>
+      <c r="K90" s="24"/>
+      <c r="L90" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="23"/>
+      <c r="P90" s="24"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="22">
+        <v>28.8</v>
+      </c>
+      <c r="K91" s="24"/>
+      <c r="L91" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="24"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="25">
+        <f>SUM(J65:K91)</f>
+        <v>198.05000000000004</v>
+      </c>
+      <c r="K92" s="27"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="7"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="25">
+        <f>SUM(J92/6)</f>
         <v>33.00833333333334</v>
       </c>
-      <c r="K62" s="15"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="26"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="L56:P56"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="L59:P59"/>
-    <mergeCell ref="L60:P60"/>
-    <mergeCell ref="L61:P62"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="L51:P51"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="L55:P55"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="L48:P48"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J40:K48"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F56:I57"/>
-    <mergeCell ref="F58:I60"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="F36:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F50:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B48:E48"/>
+  <mergeCells count="149">
+    <mergeCell ref="AE67:AF67"/>
+    <mergeCell ref="AB68:AD68"/>
+    <mergeCell ref="AE68:AF68"/>
+    <mergeCell ref="AB69:AD69"/>
+    <mergeCell ref="AE69:AF69"/>
+    <mergeCell ref="AB70:AD70"/>
+    <mergeCell ref="AE70:AF70"/>
+    <mergeCell ref="A62:AG62"/>
+    <mergeCell ref="B23:AG37"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:P93"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="AB64:AD64"/>
+    <mergeCell ref="AB65:AD65"/>
+    <mergeCell ref="AB66:AD66"/>
+    <mergeCell ref="AB67:AD67"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="F89:I91"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:P89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:P90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:P91"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:P85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:P86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="F87:I88"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:P87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:P88"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:P80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I84"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:P81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:P82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:P83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:P84"/>
+    <mergeCell ref="F71:I79"/>
+    <mergeCell ref="J71:K79"/>
+    <mergeCell ref="L71:P71"/>
+    <mergeCell ref="L72:P72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="L73:P73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="L74:P74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="L75:P75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="L76:P76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="L77:P77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="L78:P78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="L79:P79"/>
+    <mergeCell ref="F67:I69"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:P67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:P68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:P69"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:P70"/>
+    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:P64"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:P65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:P66"/>
+    <mergeCell ref="AE64:AF64"/>
+    <mergeCell ref="AE65:AF65"/>
+    <mergeCell ref="AE66:AF66"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
     <mergeCell ref="B8:AG22"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="N5:AG5"/>
-    <mergeCell ref="A30:AG30"/>
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="P6:Q6"/>
@@ -7573,24 +9416,35 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="AC40:AE40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3788415A-8A54-45D0-9562-FA834A7ED0B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>